--- a/course agenda.xlsx
+++ b/course agenda.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a84119306\Desktop\Python Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FZL\Desktop\Git Shit\Py_Sifu2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB47E3-22EE-4D41-8DB7-79532AEEEAD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda Overview" sheetId="1" r:id="rId1"/>
@@ -379,7 +380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,19 +715,19 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1032,7 @@
       <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1039,25 +1040,25 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1112,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1119,7 +1120,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
@@ -1142,11 +1143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
